--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461B7F94-A773-4D1C-889F-0FBEEABFC816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7265B84-383D-4B67-873B-2FD39419826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023-5-5" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="2023-5-5" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>0</t>
   </si>
@@ -50,12 +51,27 @@
   <si>
     <t>FULL</t>
   </si>
+  <si>
+    <t>1. Run quiz</t>
+  </si>
+  <si>
+    <t>2. In Developer tools search for "results"</t>
+  </si>
+  <si>
+    <t>3a) If answer from actual answerList was wrong, remove answer in order from 1 to 3</t>
+  </si>
+  <si>
+    <t>3b) If answer was right, highlight the first number in order from 1 to 3 - it's the answer for script</t>
+  </si>
+  <si>
+    <t>4. Do previous steps for all questions with ID 1-21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +81,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,16 +119,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -196,7 +256,153 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -302,14 +508,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="0" dataDxfId="10">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="8" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
+      <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="1" dataDxfId="19">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -614,29 +837,547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F98ED-1844-4978-B485-952E3D495531}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED755CB7-62F8-48CE-AE50-FB89AD3A5C7D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -732,7 +1473,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="1">

--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7265B84-383D-4B67-873B-2FD39419826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BC39A-1063-4EAA-A0B7-4F0461C426BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
+    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="2023-5-5" sheetId="1" r:id="rId2"/>
+    <sheet name="2023-5-9" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>0</t>
   </si>
@@ -93,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,17 +126,184 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -160,6 +334,170 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -202,114 +540,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -327,6 +557,114 @@
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -342,153 +680,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -508,14 +700,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="6" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -525,15 +717,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="1" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1359,7 +1568,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,6 +2017,467 @@
       <c r="E27" s="3" t="str">
         <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
         <v>[0,3,1,1,1,1,3,3,3,2,3,1,2,1,1,1,2,1,1,2,1,2,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB2A6C6-C582-4C85-A787-E6B26E995BE3}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,1,1,2,1,2,3,1,2,2,1,3,1,2,3,2,2,3,2,1,1,2,1,1,1,1]</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BC39A-1063-4EAA-A0B7-4F0461C426BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371B0742-2774-4F6B-8B2F-A9906FE1F607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="2023-5-5" sheetId="1" r:id="rId2"/>
     <sheet name="2023-5-9" sheetId="3" r:id="rId3"/>
+    <sheet name="2023-05-12" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>0</t>
   </si>
@@ -139,7 +140,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="40">
     <dxf>
       <font>
         <b val="0"/>
@@ -231,6 +232,188 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -700,14 +883,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -717,14 +900,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -734,15 +917,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
-    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{505F929E-768B-4C6A-8319-02D7AF42B437}" name="0"/>
+    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2487,4 +2687,465 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26833DCF-168B-408E-878D-5DFA53F24BA0}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,1,3,1,1,2,3,3,2,2,1,1,1,2,1,2,3,1,3,1,1,2,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371B0742-2774-4F6B-8B2F-A9906FE1F607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498647C1-9975-435A-A4EB-25D9F3EB4E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="2023-5-5" sheetId="1" r:id="rId2"/>
     <sheet name="2023-5-9" sheetId="3" r:id="rId3"/>
     <sheet name="2023-05-12" sheetId="4" r:id="rId4"/>
+    <sheet name="2023-05-16" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -68,12 +69,27 @@
   <si>
     <t>4. Do previous steps for all questions with ID 1-21</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1. Answer the question</t>
+  </si>
+  <si>
+    <t>2. In developer tools, Network - check for "challenges"</t>
+  </si>
+  <si>
+    <t>3. One request is for question number, another request (it's body) is for answer number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +106,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -136,11 +159,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -232,6 +256,188 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -883,14 +1089,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -900,14 +1106,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -917,14 +1123,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
-    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -934,15 +1140,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{505F929E-768B-4C6A-8319-02D7AF42B437}" name="0"/>
-    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0C988102-ACAC-424A-87E2-5782013F7C30}" name="0"/>
+    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1247,9 +1470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F98ED-1844-4978-B485-952E3D495531}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1729,6 +1954,11 @@
         <v>[0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
@@ -1752,6 +1982,26 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3148,4 +3398,465 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387FBFF6-AFF5-4BA0-B8E8-3C6847664D38}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,1,1,2,1,2,1,1,2,2,1,3,3,2,1,2,3,3,2,1,2,2,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498647C1-9975-435A-A4EB-25D9F3EB4E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC123D-FCBD-4A64-A019-83AACC56CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="2023-5-9" sheetId="3" r:id="rId3"/>
     <sheet name="2023-05-12" sheetId="4" r:id="rId4"/>
     <sheet name="2023-05-16" sheetId="5" r:id="rId5"/>
+    <sheet name="2023-05-20" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -164,7 +165,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="60">
     <dxf>
       <font>
         <b val="0"/>
@@ -256,6 +257,188 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1089,14 +1272,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1106,14 +1289,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1123,14 +1306,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
-    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1140,14 +1323,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{505F929E-768B-4C6A-8319-02D7AF42B437}" name="0"/>
-    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1157,15 +1340,32 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0C988102-ACAC-424A-87E2-5782013F7C30}" name="0"/>
-    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07A19980-937C-4C49-AC6A-B7E8606D1501}" name="Table137" displayName="Table137" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{66E49F2C-F7C1-44BA-B158-831F428566AB}" name="0"/>
+    <tableColumn id="2" xr3:uid="{1F4D438F-D3E0-4332-A4DD-8DDDF253A302}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{055EB94C-980E-4883-A07C-E5E9266DD758}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4FFD099B-8091-45C4-9D96-DFCD80AE443C}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{09899FD5-B7E6-438C-ACA8-7D98C97CDD26}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1469,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F98ED-1844-4978-B485-952E3D495531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F98ED-1844-4978-B485-952E3D495531}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2007,8 +2207,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3859,4 +4060,477 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D47541-FA00-4B3A-BDF9-B0A68D399AF5}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,1,1,1,1,1,1,1,1,2,1,3,1,2,3,1,2,2,2,2,1,1,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC123D-FCBD-4A64-A019-83AACC56CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE133C2-F72D-4F1F-9139-91D9149D28A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
@@ -4431,9 +4431,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="8">
         <v>2</v>
       </c>
@@ -4442,7 +4440,7 @@
       </c>
       <c r="E22" s="1">
         <f>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,7 +4521,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="str">
         <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
-        <v>[0,1,1,1,1,1,1,1,1,2,1,3,1,2,3,1,2,2,2,2,1,1,1,1,1,1]</v>
+        <v>[0,1,1,1,1,1,1,1,1,2,1,3,1,2,3,1,2,2,2,2,1,2,1,1,1,1]</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE133C2-F72D-4F1F-9139-91D9149D28A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0048924B-0213-4660-B7BC-6378D375425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2023-05-12" sheetId="4" r:id="rId4"/>
     <sheet name="2023-05-16" sheetId="5" r:id="rId5"/>
     <sheet name="2023-05-20" sheetId="6" r:id="rId6"/>
+    <sheet name="2023-05-22" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -165,7 +166,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="70">
     <dxf>
       <font>
         <b val="0"/>
@@ -257,6 +258,188 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1272,14 +1455,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1289,14 +1472,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1306,14 +1489,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
-    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1323,14 +1506,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{505F929E-768B-4C6A-8319-02D7AF42B437}" name="0"/>
-    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1340,14 +1523,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0C988102-ACAC-424A-87E2-5782013F7C30}" name="0"/>
-    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1357,15 +1540,32 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07A19980-937C-4C49-AC6A-B7E8606D1501}" name="Table137" displayName="Table137" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07A19980-937C-4C49-AC6A-B7E8606D1501}" name="Table137" displayName="Table137" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{66E49F2C-F7C1-44BA-B158-831F428566AB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1F4D438F-D3E0-4332-A4DD-8DDDF253A302}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{055EB94C-980E-4883-A07C-E5E9266DD758}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4FFD099B-8091-45C4-9D96-DFCD80AE443C}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{09899FD5-B7E6-438C-ACA8-7D98C97CDD26}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{1F4D438F-D3E0-4332-A4DD-8DDDF253A302}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{055EB94C-980E-4883-A07C-E5E9266DD758}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{4FFD099B-8091-45C4-9D96-DFCD80AE443C}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{09899FD5-B7E6-438C-ACA8-7D98C97CDD26}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71BF3090-2195-470F-8254-7F1DA30878A2}" name="Table138" displayName="Table138" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1B5F0BC8-EDCE-4780-97AD-4635FD114C4B}" name="0"/>
+    <tableColumn id="2" xr3:uid="{B5EB567F-263B-4AFD-9DF5-B0B999320691}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7730D9EE-BE3F-4C1A-9C0B-E56A0A6C8308}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CF8D9F2B-06CE-44AF-819F-CF20E9E11A4E}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EB7087FE-41D0-4865-8005-F0808305F399}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1672,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F98ED-1844-4978-B485-952E3D495531}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -4531,4 +4731,449 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2195478-D9BC-45A9-81FA-FB1987C675E4}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
+        <v>[0,2,3,1,2,3,3,3,2,2,1,3,1,3,3,2,1,3,2,2,1,2,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/scripts/QuizConfigHelper.xlsx
+++ b/scripts/QuizConfigHelper.xlsx
@@ -8,18 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0048924B-0213-4660-B7BC-6378D375425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C037D3A3-D3DD-42F3-A8CF-12F79E7263DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="13" xr2:uid="{1A1E301B-5405-4BF5-94E3-74BAFB9EEE14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="2" r:id="rId1"/>
-    <sheet name="2023-5-5" sheetId="1" r:id="rId2"/>
-    <sheet name="2023-5-9" sheetId="3" r:id="rId3"/>
-    <sheet name="2023-05-12" sheetId="4" r:id="rId4"/>
-    <sheet name="2023-05-16" sheetId="5" r:id="rId5"/>
-    <sheet name="2023-05-20" sheetId="6" r:id="rId6"/>
-    <sheet name="2023-05-22" sheetId="7" r:id="rId7"/>
+    <sheet name="Template 2023-05" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="2023-5-5" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="2023-5-9" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="2023-05-12" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="2023-05-16" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="2023-05-20" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="2023-05-22" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Template 2023-10" sheetId="8" r:id="rId8"/>
+    <sheet name="2023-10-10" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name=" 2023-10-13" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="2023-10-15" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="2023-10-20" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="2023-10-26" sheetId="14" state="hidden" r:id="rId13"/>
+    <sheet name="2023-19-11" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -91,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +126,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +155,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -152,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -162,11 +190,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="140">
     <dxf>
       <font>
         <b val="0"/>
@@ -258,6 +289,1280 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1455,14 +2760,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95E507F7-1E07-427A-A363-C0FB487EC785}" name="Table13" displayName="Table13" ref="A1:E27" totalsRowCount="1" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C69BBE94-502E-47D3-A9AA-F194F354155A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="2" xr3:uid="{1FB0E793-A471-497D-88C4-949E9BFA0C8F}" name="1" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{89F2C03D-ED22-4063-911D-E7373DEF9496}" name="2" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{1FA3B4D5-8641-4F49-9616-E0366217905E}" name="3" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{91B96506-156E-4C32-99E8-0DE63DDC8C37}" name="FULL" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>IF(Table13[[#This Row],[1]]&lt;&gt;"",Table13[[#This Row],[1]],IF(Table13[[#This Row],[2]]&lt;&gt;"",Table13[[#This Row],[2]],IF(Table13[[#This Row],[3]]&lt;&gt;"",Table13[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1471,15 +2776,100 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{883E7684-FF58-478B-92D7-30ACF9F410B9}" name="Table13911" displayName="Table13911" ref="A1:E33" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7C9C145A-3BD8-4108-95AA-D6A0D26E97F7}" name="0"/>
+    <tableColumn id="2" xr3:uid="{2F244286-716E-4F7F-9DFC-3DB00D7C4122}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{C8460A7D-17F9-498D-9FCD-39F9B6BACEC1}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{CEF94674-9F05-4F1E-B454-66FE705C2A97}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{50C37073-7952-4518-9CFD-664CE6BEC5EF}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+      <calculatedColumnFormula>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C5D33110-5665-4F58-8512-7EB239BE909C}" name="Table13912" displayName="Table13912" ref="A1:E33" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8D9CB4C9-DE0B-4846-B3E6-C68E98BB1962}" name="0"/>
+    <tableColumn id="2" xr3:uid="{317BC7FF-4B30-43A7-8242-1F2605A5FD03}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{D6946A9D-B499-4862-BF42-AE82A69198AC}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{5A8094F2-DE41-45F9-B376-74D485F69636}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{CA264961-153F-4862-90B1-8D3359FCA2E2}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+      <calculatedColumnFormula>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EA8BE26C-4829-48A4-963D-4EC050A61415}" name="Table13913" displayName="Table13913" ref="A1:E33" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3EE3EDC6-D7D5-4820-A639-8DE0AE6A9763}" name="0"/>
+    <tableColumn id="2" xr3:uid="{AB89BA22-F3A2-4335-AA7B-AE58C6510637}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{159591D1-FAE3-401A-ADF3-381235A70117}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4D568E52-001E-4BFE-81B5-CEA1CFDDA9CB}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{206239AD-A231-4990-9FF4-6742E90E0039}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+      <calculatedColumnFormula>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B846C942-136D-4EF3-9EF8-88D65D92B24C}" name="Table139131415" displayName="Table139131415" ref="A1:E33" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1E4278EB-626E-4490-A667-9A4BBBF97312}" name="0"/>
+    <tableColumn id="2" xr3:uid="{6C2503A0-7C71-47D3-AC27-3F0BA1156BEE}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{8ABA447D-180D-4510-B4A7-FB12F4ABDFD0}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6846DECB-06C1-47D4-9073-2A995D93DBCA}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{9CDEFDB2-9F33-4416-9029-E812417B9D66}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{55B1319E-1188-4C39-9D16-85BD633D9230}" name="Table1391314" displayName="Table1391314" ref="A1:E33" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ACA2E5C5-381C-4BF7-A0D1-163281F6C680}" name="0"/>
+    <tableColumn id="2" xr3:uid="{404B4932-FF15-4C36-8201-47008C232324}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4AC86E19-F2E5-4630-8282-4AE52480B524}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{5D3BC54F-AF84-4DB4-8A9E-EFB43294FAE2}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{742BF895-143D-4FF6-887F-9A9E0990C51B}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1" headerRowDxfId="129" dataDxfId="128">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCFB1B30-AA68-4524-AF80-5AFE18AC05BB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="2" xr3:uid="{A90B6EEB-FC8B-4231-A5E2-A31293EDB551}" name="1" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{585B8F47-B526-4C76-86B8-BE40EFC8C722}" name="2" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{54B78388-3C67-4184-9ECE-F5B91C34B9B0}" name="3" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{8EAC5146-454C-4D49-93CC-6E35149D5DE1}" name="FULL" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(Table1[[#This Row],[1]]&lt;&gt;"",Table1[[#This Row],[1]],IF(Table1[[#This Row],[2]]&lt;&gt;"",Table1[[#This Row],[2]],IF(Table1[[#This Row],[3]]&lt;&gt;"",Table1[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1489,14 +2879,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CAFE9AE5-0B16-4514-B197-572F13AA30A7}" name="Table134" displayName="Table134" ref="A1:E27" totalsRowCount="1" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF4F8265-B0FC-41E6-8AC1-651C4897F2CA}" name="0"/>
-    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="2" xr3:uid="{F55FCA69-A470-4417-96D6-371FADAD369E}" name="1" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{1F9511D4-2006-44BE-92C1-B633CA778DFD}" name="2" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{1115CEC8-FF8F-4254-B621-91D36AC9C5CA}" name="3" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{089919ED-3EAD-4973-82E9-8D6B7131EB45}" name="FULL" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>IF(Table134[[#This Row],[1]]&lt;&gt;"",Table134[[#This Row],[1]],IF(Table134[[#This Row],[2]]&lt;&gt;"",Table134[[#This Row],[2]],IF(Table134[[#This Row],[3]]&lt;&gt;"",Table134[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1506,14 +2896,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC9C3D7-EE85-4DF0-AA68-D5AD46CF29E5}" name="Table135" displayName="Table135" ref="A1:E27" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{505F929E-768B-4C6A-8319-02D7AF42B437}" name="0"/>
-    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{6EFB68BD-9CE4-4AF7-AF18-1466AB5D36AC}" name="1" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{D2E9260F-FA42-4A89-BF27-AB9FDCF0C09D}" name="2" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{3C83FC51-5AEB-45FA-BDF8-E7301DB8B532}" name="3" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{732009B5-960E-4EA9-A36A-0FC6CC36741E}" name="FULL" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>IF(Table135[[#This Row],[1]]&lt;&gt;"",Table135[[#This Row],[1]],IF(Table135[[#This Row],[2]]&lt;&gt;"",Table135[[#This Row],[2]],IF(Table135[[#This Row],[3]]&lt;&gt;"",Table135[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1523,14 +2913,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0A6A52-5718-49B8-8795-73A4BFD1F483}" name="Table136" displayName="Table136" ref="A1:E27" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0C988102-ACAC-424A-87E2-5782013F7C30}" name="0"/>
-    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{4E69332C-5341-4C53-A801-A64D958F2603}" name="1" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{867EDD1B-54AE-4A8C-A853-8A1EA8551A8D}" name="2" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{3ECAF8E1-2961-4824-B5F3-E11CDDC98E0C}" name="3" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{14CA4558-55D5-461C-A1B6-32348C9235E9}" name="FULL" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>IF(Table136[[#This Row],[1]]&lt;&gt;"",Table136[[#This Row],[1]],IF(Table136[[#This Row],[2]]&lt;&gt;"",Table136[[#This Row],[2]],IF(Table136[[#This Row],[3]]&lt;&gt;"",Table136[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1540,14 +2930,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07A19980-937C-4C49-AC6A-B7E8606D1501}" name="Table137" displayName="Table137" ref="A1:E27" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07A19980-937C-4C49-AC6A-B7E8606D1501}" name="Table137" displayName="Table137" ref="A1:E27" totalsRowCount="1" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{66E49F2C-F7C1-44BA-B158-831F428566AB}" name="0"/>
-    <tableColumn id="2" xr3:uid="{1F4D438F-D3E0-4332-A4DD-8DDDF253A302}" name="1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{055EB94C-980E-4883-A07C-E5E9266DD758}" name="2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{4FFD099B-8091-45C4-9D96-DFCD80AE443C}" name="3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{09899FD5-B7E6-438C-ACA8-7D98C97CDD26}" name="FULL" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{1F4D438F-D3E0-4332-A4DD-8DDDF253A302}" name="1" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{055EB94C-980E-4883-A07C-E5E9266DD758}" name="2" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{4FFD099B-8091-45C4-9D96-DFCD80AE443C}" name="3" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{09899FD5-B7E6-438C-ACA8-7D98C97CDD26}" name="FULL" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>IF(Table137[[#This Row],[1]]&lt;&gt;"",Table137[[#This Row],[1]],IF(Table137[[#This Row],[2]]&lt;&gt;"",Table137[[#This Row],[2]],IF(Table137[[#This Row],[3]]&lt;&gt;"",Table137[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
     </tableColumn>
@@ -1557,16 +2947,50 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71BF3090-2195-470F-8254-7F1DA30878A2}" name="Table138" displayName="Table138" ref="A1:E27" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71BF3090-2195-470F-8254-7F1DA30878A2}" name="Table138" displayName="Table138" ref="A1:E27" totalsRowCount="1" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:E26" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1B5F0BC8-EDCE-4780-97AD-4635FD114C4B}" name="0"/>
-    <tableColumn id="2" xr3:uid="{B5EB567F-263B-4AFD-9DF5-B0B999320691}" name="1" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7730D9EE-BE3F-4C1A-9C0B-E56A0A6C8308}" name="2" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CF8D9F2B-06CE-44AF-819F-CF20E9E11A4E}" name="3" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{EB7087FE-41D0-4865-8005-F0808305F399}" name="FULL" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{B5EB567F-263B-4AFD-9DF5-B0B999320691}" name="1" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{7730D9EE-BE3F-4C1A-9C0B-E56A0A6C8308}" name="2" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{CF8D9F2B-06CE-44AF-819F-CF20E9E11A4E}" name="3" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{EB7087FE-41D0-4865-8005-F0808305F399}" name="FULL" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>IF(Table138[[#This Row],[1]]&lt;&gt;"",Table138[[#This Row],[1]],IF(Table138[[#This Row],[2]]&lt;&gt;"",Table138[[#This Row],[2]],IF(Table138[[#This Row],[3]]&lt;&gt;"",Table138[[#This Row],[3]],"-")))</calculatedColumnFormula>
       <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B9C04087-62D0-47F8-8CC9-2647857666BF}" name="Table139" displayName="Table139" ref="A1:E33" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{764C0F2A-DB50-4B8B-BB63-D0D6AF5FC1F7}" name="0"/>
+    <tableColumn id="2" xr3:uid="{5881496F-0A59-4712-8C00-1D80E40FF7DB}" name="1" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{83A2AA9B-9226-46D1-A468-EBBFEDE64AA0}" name="2" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{6E41B116-B513-4244-8468-A9D75F1F2A5B}" name="3" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{47392D89-CA81-4231-A06F-3131C57B51A0}" name="FULL" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+      <calculatedColumnFormula>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{94FD4441-4092-41B3-9174-EE086081E473}" name="Table13910" displayName="Table13910" ref="A1:E33" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:E32" xr:uid="{C9AE075E-B9D0-44B1-A335-E02B884B531E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{38895948-56F1-4FAB-9898-C01EA91F5A14}" name="0"/>
+    <tableColumn id="2" xr3:uid="{CB5198FA-75F8-4764-98B3-40950EA1ED04}" name="1" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{E371DD02-2C96-47FE-BC2D-D954743E7CBA}" name="2" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{EBE6AECC-8C64-46A0-A3DB-B0175CC56DF5}" name="3" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{62DA12E9-5E7D-4105-AE3C-B9E7A3663ABA}" name="FULL" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+      <calculatedColumnFormula>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</calculatedColumnFormula>
+      <totalsRowFormula>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2414,13 +3838,2907 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6FBC12-950F-44F7-9A54-B22D12F6D78E}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table13911[[#This Row],[1]]&lt;&gt;"",Table13911[[#This Row],[1]],IF(Table13911[[#This Row],[2]]&lt;&gt;"",Table13911[[#This Row],[2]],IF(Table13911[[#This Row],[3]]&lt;&gt;"",Table13911[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,3,2,3,1,2,1,1,1,1,2,1,2,2,1,1,1,2,2,1,1,1,1,1,3,1,3,1,1,3,3,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE1BFCD-67AF-4175-ACBD-2AA628070F5E}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table13912[[#This Row],[1]]&lt;&gt;"",Table13912[[#This Row],[1]],IF(Table13912[[#This Row],[2]]&lt;&gt;"",Table13912[[#This Row],[2]],IF(Table13912[[#This Row],[3]]&lt;&gt;"",Table13912[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,3,1,2,1,1,1,1,1,3,2,1,2,2,1,1,1,2,2,1,1,1,1,1,3,1,1,1,1,3,3,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7FEBF0-C330-4CEE-A84B-6F87020DDB50}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table13913[[#This Row],[1]]&lt;&gt;"",Table13913[[#This Row],[1]],IF(Table13913[[#This Row],[2]]&lt;&gt;"",Table13913[[#This Row],[2]],IF(Table13913[[#This Row],[3]]&lt;&gt;"",Table13913[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,3,1,2,1,1,1,1,1,3,2,1,2,2,1,1,1,2,2,1,1,1,1,1,3,1,1,1,1,3,3,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8E9DE7-48F2-4F72-9355-F10182FF9B57}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table139131415[[#This Row],[1]]&lt;&gt;"",Table139131415[[#This Row],[1]],IF(Table139131415[[#This Row],[2]]&lt;&gt;"",Table139131415[[#This Row],[2]],IF(Table139131415[[#This Row],[3]]&lt;&gt;"",Table139131415[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,3,1,2,1,1,1,1,1,3,2,1,2,2,1,1,1,2,2,1,1,1,1,1,3,1,1,1,1,3,3,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E695ABD-4215-49EF-8459-8D567C01EA1A}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table1391314[[#This Row],[1]]&lt;&gt;"",Table1391314[[#This Row],[1]],IF(Table1391314[[#This Row],[2]]&lt;&gt;"",Table1391314[[#This Row],[2]],IF(Table1391314[[#This Row],[3]]&lt;&gt;"",Table1391314[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,1,1,3,1,1,1,2,2,1,3,2,1,1,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED755CB7-62F8-48CE-AE50-FB89AD3A5C7D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2883,9 +7201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB2A6C6-C582-4C85-A787-E6B26E995BE3}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3805,9 +8121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387FBFF6-AFF5-4BA0-B8E8-3C6847664D38}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4737,7 +9051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2195478-D9BC-45A9-81FA-FB1987C675E4}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5167,6 +9481,1284 @@
       <c r="E27" s="3" t="str">
         <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;"]"</f>
         <v>[0,2,3,1,2,3,3,3,2,2,1,3,1,3,3,2,1,3,2,2,1,2,1,1,1,1]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3CA977-923D-4D69-850A-5854C7B1C83E}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table139[[#This Row],[1]]&lt;&gt;"",Table139[[#This Row],[1]],IF(Table139[[#This Row],[2]]&lt;&gt;"",Table139[[#This Row],[2]],IF(Table139[[#This Row],[3]]&lt;&gt;"",Table139[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F26E5C-9110-4049-926A-EEECA85610E5}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f>IF(Table13910[[#This Row],[1]]&lt;&gt;"",Table13910[[#This Row],[1]],IF(Table13910[[#This Row],[2]]&lt;&gt;"",Table13910[[#This Row],[2]],IF(Table13910[[#This Row],[3]]&lt;&gt;"",Table13910[[#This Row],[3]],"-")))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="str">
+        <f>"[0"&amp;","&amp;E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15&amp;","&amp;E16&amp;","&amp;E17&amp;","&amp;E18&amp;","&amp;E19&amp;","&amp;E20&amp;","&amp;E21&amp;","&amp;E22&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25&amp;","&amp;E26&amp;","&amp;E27&amp;","&amp;E28&amp;","&amp;E29&amp;","&amp;E30&amp;","&amp;E31&amp;","&amp;E32&amp;"]"</f>
+        <v>[0,3,1,2,1,1,1,1,1,3,2,1,2,2,1,1,1,2,2,1,1,1,1,1,2,1,1,1,1,3,3,1]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
